--- a/Exercise_3.3.xlsx
+++ b/Exercise_3.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ABE65100\2020Grading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\ABE65100\2020Grading\Python - Learning The Basics-01-29-2020-05-25-17\avnika16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94438488-26C7-4CCF-942A-E50D4D956D16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D82CDC-5A40-457A-A24B-4CD294FFC757}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7470" xr2:uid="{70B9C94D-AB40-4B01-A8E7-2F6A688A3993}"/>
   </bookViews>
@@ -222,9 +222,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -233,18 +245,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A1D232-33DD-4953-BB28-3A406F3F691C}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,22 +578,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
@@ -637,26 +637,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="14" t="b">
+      <c r="J3" s="18">
         <f>IF(B3,A4*B4*J$11,IF(D3,A4*D4*J$11,IF(F3,A4*F4*J$11,IF(H3,A4*H4*J$11))))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -665,47 +667,49 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2">
         <v>0.45</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="1">
         <v>0.9</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="14" t="b">
+      <c r="J5" s="18">
         <f>IF(B5,A6*B6*J$11,IF(D5,A6*D6*J$11,IF(F5,A6*F6*J$11,IF(H5,A6*H6*J$11))))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="18"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -714,47 +718,49 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2">
         <v>0.45</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1">
         <v>0.9</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="14" t="b">
+      <c r="J7" s="18">
         <f>IF(B7,A8*B8*J$11,IF(D7,A8*D8*J$11,IF(F7,A8*F8*J$11,IF(H7,A8*H8*J$11))))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="18"/>
+        <v>4.5</v>
+      </c>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -763,21 +769,21 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2">
         <v>0.45</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1">
         <v>0.9</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="19"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -792,7 +798,7 @@
       </c>
       <c r="J10" s="8">
         <f>SUM(J3:J8)</f>
-        <v>0</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -806,6 +812,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -822,12 +834,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
